--- a/DesignerConfigs/Datas/Reddot.xlsx
+++ b/DesignerConfigs/Datas/Reddot.xlsx
@@ -1265,7 +1265,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>

--- a/DesignerConfigs/Datas/Reddot.xlsx
+++ b/DesignerConfigs/Datas/Reddot.xlsx
@@ -26,6 +26,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">A_B
+A：UI的Id，参考UIRes
+B：UI物体下的目标
+不填写即为不显示。
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
@@ -74,19 +100,19 @@
     <t>Out</t>
   </si>
   <si>
-    <t>UIGamePlay/Top/TaskBtn/Reddot</t>
+    <t>4_Top/TaskBtn/Reddot</t>
   </si>
   <si>
     <t>Daily</t>
   </si>
   <si>
-    <t>UITask/ToggleGroup/DailyTasksToggle/DTRd</t>
+    <t>12_ToggleGroup/DailyTasksToggle/DTRd</t>
   </si>
   <si>
     <t>Challenge</t>
   </si>
   <si>
-    <t>UITask/ToggleGroup/ChallengeTaskToggle/CTRd</t>
+    <t>12_ToggleGroup/ChallengeTaskToggle/CTRd</t>
   </si>
 </sst>
 </file>
@@ -99,7 +125,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +283,11 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1265,7 +1296,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1353,7 +1384,7 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6">
-        <v>1</v>
+        <v>10001</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -1367,13 +1398,13 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7">
-        <v>2</v>
+        <v>10002</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>10001</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -1381,13 +1412,13 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8">
-        <v>3</v>
+        <v>10003</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>10001</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
@@ -1396,5 +1427,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DesignerConfigs/Datas/Reddot.xlsx
+++ b/DesignerConfigs/Datas/Reddot.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Reddot" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -113,6 +113,30 @@
   </si>
   <si>
     <t>12_ToggleGroup/ChallengeTaskToggle/CTRd</t>
+  </si>
+  <si>
+    <t>DailyOutBy</t>
+  </si>
+  <si>
+    <t>26_Top/WithdrawalBtn/Reddot</t>
+  </si>
+  <si>
+    <t>DailyBy</t>
+  </si>
+  <si>
+    <t>27_ToggleGroup/DailyTasksToggle/DTRd</t>
+  </si>
+  <si>
+    <t>ChallengeOutBy</t>
+  </si>
+  <si>
+    <t>26_Top/TaskBtn/Reddot</t>
+  </si>
+  <si>
+    <t>ChallengeBy</t>
+  </si>
+  <si>
+    <t>28_ToggleGroup/ChallengeTaskToggle/CTRd</t>
   </si>
 </sst>
 </file>
@@ -1293,15 +1317,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I14" sqref="D24 I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1424,6 +1448,62 @@
         <v>19</v>
       </c>
     </row>
+    <row r="9" spans="2:5">
+      <c r="B9">
+        <v>10004</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10">
+        <v>10005</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>10004</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11">
+        <v>10006</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12">
+        <v>10007</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>10006</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
